--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.3_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.3_Initial.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76190C3-6C55-45BB-80D6-05C1B83DAF9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24D97D-B9E4-40D9-AC4A-FAC831F63CBF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,26 +163,30 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,52 +524,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
